--- a/config_hlw/fish_am_yutu_random_3.xlsx
+++ b/config_hlw/fish_am_yutu_random_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -243,10 +243,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>35,42,43,44,45,47,47,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,10 +286,6 @@
     <t>一网打尽</t>
   </si>
   <si>
-    <t>55,125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小boss-鲨鱼武士,熔岩鲨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,18 +302,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34,36,103,104,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,105,106,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,107,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -339,6 +319,29 @@
   </si>
   <si>
     <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,115,116,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,117,118,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,40,41,119,120,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,42,43,44,45,46,47,48,49,49,50,50,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,125,123,124</t>
+  </si>
+  <si>
+    <t>55,125,123,124</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1057,7 +1060,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1075,7 +1078,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
@@ -1096,10 +1099,10 @@
         <v>53</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1107,10 +1110,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D2" s="11">
         <v>150</v>
@@ -1119,7 +1122,7 @@
         <v>250</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1127,10 +1130,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D3" s="11">
         <v>200</v>
@@ -1139,7 +1142,7 @@
         <v>300</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1147,10 +1150,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D4" s="11">
         <v>250</v>
@@ -1159,7 +1162,7 @@
         <v>350</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1167,7 +1170,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
@@ -1187,10 +1190,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
+        <v>62</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>77</v>
       </c>
       <c r="D6" s="11">
         <v>400</v>
@@ -1207,10 +1210,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D7" s="11">
         <v>50</v>
@@ -1229,10 +1232,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D8" s="11">
         <v>60</v>
@@ -1249,10 +1252,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D9" s="11">
         <v>800</v>
@@ -1272,10 +1275,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D10" s="11">
         <v>1800</v>
@@ -1295,10 +1298,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D11" s="11">
         <v>2800</v>
@@ -1318,10 +1321,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D12" s="11">
         <v>3800</v>
@@ -1341,10 +1344,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D13" s="11">
         <v>4800</v>
@@ -1810,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
@@ -1827,7 +1830,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>45</v>
@@ -1836,7 +1839,7 @@
         <v>46</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1844,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>45</v>
@@ -1853,7 +1856,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1861,7 +1864,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>45</v>
@@ -1870,7 +1873,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1878,7 +1881,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>45</v>
@@ -1887,7 +1890,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_hlw/fish_am_yutu_random_3.xlsx
+++ b/config_hlw/fish_am_yutu_random_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -342,6 +342,18 @@
   </si>
   <si>
     <t>55,125,123,124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大三元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,16,17,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1060,7 +1072,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D2" sqref="D2:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1116,10 +1128,10 @@
         <v>74</v>
       </c>
       <c r="D2" s="11">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="E2" s="11">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>54</v>
@@ -1136,10 +1148,10 @@
         <v>75</v>
       </c>
       <c r="D3" s="11">
+        <v>50</v>
+      </c>
+      <c r="E3" s="11">
         <v>200</v>
-      </c>
-      <c r="E3" s="11">
-        <v>300</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>55</v>
@@ -1156,10 +1168,10 @@
         <v>76</v>
       </c>
       <c r="D4" s="11">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="E4" s="11">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="F4" s="11" t="s">
         <v>56</v>
@@ -1176,10 +1188,10 @@
         <v>51</v>
       </c>
       <c r="D5" s="11">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="E5" s="11">
-        <v>450</v>
+        <v>350</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
@@ -1196,10 +1208,10 @@
         <v>77</v>
       </c>
       <c r="D6" s="11">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E6" s="11">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1360,6 +1372,26 @@
       </c>
       <c r="H13" s="11">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="11">
+        <v>100</v>
+      </c>
+      <c r="E14" s="11">
+        <v>200</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2"/>

--- a/config_hlw/fish_am_yutu_random_3.xlsx
+++ b/config_hlw/fish_am_yutu_random_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,33 +228,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,19,20,21,22,23,24,25,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-  </si>
-  <si>
     <t>max_create_num|最大的创建次数（默认为9999）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,9 +260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一网打尽</t>
-  </si>
-  <si>
     <t>小boss-鲨鱼武士,熔岩鲨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,18 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34,36,115,116,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,117,118,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39,40,41,119,120,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>35,42,43,44,45,46,47,48,49,49,50,50,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -345,15 +307,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大三元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,13,14,15,16,17,</t>
+    <t>12,13,14,15,16,17,18,19,20,21,22,23,24,25,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽和大三元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,40,41,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1069,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1090,7 +1064,7 @@
         <v>36</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
         <v>37</v>
@@ -1108,13 +1082,13 @@
         <v>49</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1122,19 +1096,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="11">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" s="11">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1142,19 +1116,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="11">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E3" s="11">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1162,19 +1136,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" s="11">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="E4" s="11">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1182,19 +1156,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D5" s="11">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="E5" s="11">
-        <v>350</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
+        <v>400</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1202,19 +1176,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D6" s="11">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E6" s="11">
-        <v>500</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
+        <v>600</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1222,10 +1196,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D7" s="11">
         <v>50</v>
@@ -1233,8 +1207,8 @@
       <c r="E7" s="11">
         <v>80</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>52</v>
+      <c r="F7" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="G7" s="10"/>
       <c r="I7" s="10"/>
@@ -1244,10 +1218,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>63</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="D8" s="11">
         <v>60</v>
@@ -1256,7 +1230,7 @@
         <v>100</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1264,10 +1238,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D9" s="11">
         <v>800</v>
@@ -1276,7 +1250,7 @@
         <v>1200</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H9" s="11">
         <v>1</v>
@@ -1287,10 +1261,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D10" s="11">
         <v>1800</v>
@@ -1299,7 +1273,7 @@
         <v>2200</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H10" s="11">
         <v>1</v>
@@ -1310,10 +1284,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D11" s="11">
         <v>2800</v>
@@ -1322,7 +1296,7 @@
         <v>3200</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
@@ -1333,10 +1307,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D12" s="11">
         <v>3800</v>
@@ -1345,7 +1319,7 @@
         <v>4200</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H12" s="11">
         <v>1</v>
@@ -1356,10 +1330,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D13" s="11">
         <v>4800</v>
@@ -1368,33 +1342,13 @@
         <v>5200</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="H13" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="11">
-        <v>100</v>
-      </c>
-      <c r="E14" s="11">
-        <v>200</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1845,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
@@ -1862,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>45</v>
@@ -1871,7 +1825,7 @@
         <v>46</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1879,7 +1833,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>45</v>
@@ -1888,7 +1842,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1896,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>45</v>
@@ -1905,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1913,7 +1867,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>45</v>
@@ -1922,7 +1876,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">

--- a/config_hlw/fish_am_yutu_random_3.xlsx
+++ b/config_hlw/fish_am_yutu_random_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="74">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,70 +264,62 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>小鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26,27,28,29,30,31,32,33,64,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,7,8,9,10,11,65,66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>start_time|开始限制时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_time|结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,42,43,44,45,46,47,48,49,49,50,50,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55,125,123,124</t>
+  </si>
+  <si>
+    <t>55,125,123,124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14,15,16,17,18,19,20,21,22,23,24,25,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一网打尽和大三元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>黄金鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>黄金鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26,27,28,29,30,31,32,33,64,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,7,8,9,10,11,65,66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>start_time|开始限制时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_time|结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,42,43,44,45,46,47,48,49,49,50,50,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55,125,123,124</t>
-  </si>
-  <si>
-    <t>55,125,123,124</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12,13,14,15,16,17,18,19,20,21,22,23,24,25,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一网打尽和大三元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,36,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37,38,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39,40,41,</t>
+    <t>34,36,37,38,39,40,41,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1043,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1085,10 +1077,10 @@
         <v>50</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1096,59 +1088,59 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>73</v>
       </c>
       <c r="D2" s="11">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="E2" s="11">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
       </c>
       <c r="D3" s="11">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="E3" s="11">
         <v>400</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D4" s="11">
-        <v>250</v>
+        <v>400</v>
       </c>
       <c r="E4" s="11">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1156,39 +1148,41 @@
         <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="11">
+        <v>50</v>
+      </c>
+      <c r="E5" s="11">
+        <v>80</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="11">
-        <v>250</v>
-      </c>
-      <c r="E5" s="11">
-        <v>400</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G5" s="10"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>67</v>
+        <v>57</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>61</v>
       </c>
       <c r="D6" s="11">
-        <v>400</v>
+        <v>60</v>
       </c>
       <c r="E6" s="11">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1196,44 +1190,48 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D7" s="11">
-        <v>50</v>
+        <v>800</v>
       </c>
       <c r="E7" s="11">
-        <v>80</v>
+        <v>1200</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="10"/>
-      <c r="I7" s="10"/>
-    </row>
-    <row r="8" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D8" s="11">
-        <v>60</v>
+        <v>1800</v>
       </c>
       <c r="E8" s="11">
-        <v>100</v>
+        <v>2200</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -1241,22 +1239,22 @@
         <v>58</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D9" s="11">
-        <v>800</v>
+        <v>2800</v>
       </c>
       <c r="E9" s="11">
-        <v>1200</v>
+        <v>3200</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H9" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1264,16 +1262,16 @@
         <v>58</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="11">
-        <v>1800</v>
+        <v>3800</v>
       </c>
       <c r="E10" s="11">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H10" s="11">
         <v>1</v>
@@ -1287,68 +1285,22 @@
         <v>58</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D11" s="11">
-        <v>2800</v>
+        <v>4800</v>
       </c>
       <c r="E11" s="11">
-        <v>3200</v>
+        <v>5200</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H11" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="11">
-        <v>3800</v>
-      </c>
-      <c r="E12" s="11">
-        <v>4200</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="11">
-        <v>4800</v>
-      </c>
-      <c r="E13" s="11">
-        <v>5200</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1799,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>45</v>
@@ -1816,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>45</v>
@@ -1833,7 +1785,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>45</v>
@@ -1850,7 +1802,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>45</v>
@@ -1867,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>45</v>
